--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Òðàòéáï âàí, [hero] é\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you get lots of treasure!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0804.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, [hero] и\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы найдёте много\nсокровищ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, [hero] é\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú îàêäæóå íîïãï\nòïëñïâéþ!</t>
   </si>
 </sst>
 </file>
@@ -426,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +497,37 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>208</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>211</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû, âú îàêäæóå íîïãï\nòïëñïâéþ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please help us, Team\n[team:]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P01A/um1202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, помогите нам, Команда\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðïíïãéóå îàí, Ëïíàîäà\n[team:]!</t>
   </si>
 </sst>
 </file>
@@ -97,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,11 +152,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -165,6 +197,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,17 +559,35 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
         <v>211</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>190</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñïšô, ðïíïãéóå îàí, Ëïíàîäà\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yay! Good luck, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1409.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ура! Удачи вам, [hero]\nи [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñà! Ôäàœé âàí, [hero]\né [partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1502.ssb</t>
   </si>
 </sst>
 </file>
@@ -109,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -172,11 +187,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -209,6 +233,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +626,32 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12">
+        <v>171</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -94,6 +94,33 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/um1502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Welcome back, [partner] and\n[hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С возвращением, [partner]\nи [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò âïèâñàþåîéåí, [partner]\né [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go, go, go, [partner] and\n[hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, вперёд, вперёд,\n[partner] и [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, âðåñæä, âðåñæä,\n[partner] é [hero]!</t>
   </si>
 </sst>
 </file>
@@ -200,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -239,12 +266,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,13 +665,63 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
+        <v>133</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Âðåñæä, âðåñæä, âðåñæä,\n[partner] é [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2505.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning! [partner] and\n[hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро! [partner] и\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï! [partner] é\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congratulations, [partner]\nand [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю, [partner]\nи [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý, [partner]\né [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P01A/us3103.ssb </t>
   </si>
 </sst>
 </file>
@@ -548,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,13 +746,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
+    <row r="12" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10">
+        <v>114</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>95</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -151,6 +151,42 @@
   </si>
   <si>
     <t xml:space="preserve">SCRIPT/T01P01A/us3103.ssb </t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0204.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2004.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urf...[K] Urrrrrfff…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Урф...[K] Урррррффф...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñõ...[K] Ôñññññõõõ...</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2007.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go, go, go, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, вперёд, вперёд,\n[hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, âðåñæä, âðåñæä,\n[hero] é [partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2208.ssb</t>
   </si>
 </sst>
 </file>
@@ -257,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -296,6 +332,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D14:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +836,87 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="10">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Азурилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/us2208.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. [CS:N]Drowzee[CR] told me to tell you,\n\"Take care and thanks,\" [hero] and\n[partner].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íéòóåñ [CS:N]Äñïôèé[CR] ðïðñïòéì íåîÿ\nðåñåäàóû âàí åãï òìïâà: \"Áåñåãéóå òåáÿ é\nòðàòéáï âàí, [hero] é [partner]\".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мистер [CS:N]Дроузи[CR] попросил меня\nпередать вам его слова: \"Берегите себя и\nспасибо вам, [hero] и [partner]\".</t>
   </si>
 </sst>
 </file>
@@ -620,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,20 +913,37 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="10">
         <v>39</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
